--- a/Tables/PERMANOVA_PCO_den_met.xlsx
+++ b/Tables/PERMANOVA_PCO_den_met.xlsx
@@ -386,19 +386,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.199729668164102</v>
+        <v>0.136116072538749</v>
       </c>
       <c r="C2" t="n">
-        <v>0.199729668164102</v>
+        <v>0.136116072538749</v>
       </c>
       <c r="D2" t="n">
-        <v>0.811724217640873</v>
+        <v>0.775173933911264</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00552901494731806</v>
+        <v>0.00528136954727986</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5799</v>
+        <v>0.5961</v>
       </c>
     </row>
     <row r="3">
@@ -406,14 +406,14 @@
         <v>146</v>
       </c>
       <c r="B3" t="n">
-        <v>35.9241857249357</v>
+        <v>25.6367580503969</v>
       </c>
       <c r="C3" t="n">
-        <v>0.246056066609149</v>
+        <v>0.175594233221896</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="n">
-        <v>0.994470985052682</v>
+        <v>0.99471863045272</v>
       </c>
       <c r="F3"/>
     </row>
@@ -422,7 +422,7 @@
         <v>147</v>
       </c>
       <c r="B4" t="n">
-        <v>36.1239153930998</v>
+        <v>25.7728741229356</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
